--- a/elml/data/excel2/old_result.xlsx
+++ b/elml/data/excel2/old_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinten/WorkSpaces/GitHub/kinten0902/python/elml/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinten/WorkSpaces/GitHub/kinten0902/python/elml/data/excel2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="-820" yWindow="700" windowWidth="30280" windowHeight="16560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="166">
   <si>
     <t>全体</t>
   </si>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3900,7 +3900,7 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7061,8 +7061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7125,6 +7125,9 @@
       <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -7202,7 +7205,10 @@
         <f>SUM(F2:S2)</f>
         <v>54</v>
       </c>
-      <c r="U2" s="9"/>
+      <c r="U2" s="9">
+        <f>SUM(M2:S2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -7258,7 +7264,10 @@
         <f>SUM(F3:S3)</f>
         <v>17</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="U3" s="9">
+        <f t="shared" ref="U3:U66" si="1">SUM(M3:S3)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -7311,10 +7320,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T67" si="1">SUM(F4:S4)</f>
+        <f t="shared" ref="T4:T67" si="2">SUM(F4:S4)</f>
         <v>14</v>
       </c>
-      <c r="U4" s="5"/>
+      <c r="U4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7367,10 +7379,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="U5" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="U5" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -7393,62 +7408,65 @@
         <v>8</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ref="G6:S6" si="2">SUM(G7:G9)</f>
+        <f t="shared" ref="G6:S6" si="3">SUM(G7:G9)</f>
         <v>10</v>
       </c>
       <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
+        <v>50</v>
+      </c>
+      <c r="U6" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="U6" s="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -7501,10 +7519,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="U7" s="9">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="U7" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -7557,10 +7578,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="U8" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="U8" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7613,10 +7637,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U9" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="U9" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -7639,62 +7666,65 @@
         <v>12</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:S10" si="3">SUM(G11:G13)</f>
+        <f t="shared" ref="G10:S10" si="4">SUM(G11:G13)</f>
         <v>6</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T10" s="8">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="U10" s="9">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="U10" s="9"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -7747,10 +7777,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U11" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U11" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -7803,10 +7836,13 @@
         <v>1</v>
       </c>
       <c r="T12" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="U12" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="U12" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -7859,10 +7895,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U13" s="9">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="U13" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -7885,62 +7924,65 @@
         <v>20</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:S14" si="4">SUM(G15:G17)</f>
+        <f t="shared" ref="G14:S14" si="5">SUM(G15:G17)</f>
         <v>16</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T14" s="8">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="U14" s="9">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="U14" s="9"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -7993,10 +8035,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="U15" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="U15" s="5"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -8049,10 +8094,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="U16" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="U16" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -8105,10 +8153,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="U17" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="U17" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -8131,62 +8182,65 @@
         <v>23</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:S18" si="5">SUM(G19:G21)</f>
+        <f t="shared" ref="G18:S18" si="6">SUM(G19:G21)</f>
         <v>10</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="8">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="U18" s="9">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="U18" s="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -8239,10 +8293,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="U19" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="U19" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -8295,10 +8352,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U20" s="9">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="U20" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -8351,10 +8411,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U21" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U21" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -8377,62 +8440,65 @@
         <v>42</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22:S22" si="6">SUM(G23:G25)</f>
+        <f t="shared" ref="G22:S22" si="7">SUM(G23:G25)</f>
         <v>20</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T22" s="8">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="U22" s="9">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="U22" s="9"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -8485,10 +8551,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="U23" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="U23" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -8541,10 +8610,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="U24" s="9">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="U24" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -8597,10 +8669,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="U25" s="9">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="U25" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -8623,62 +8698,65 @@
         <v>10</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:S26" si="7">SUM(G27:G29)</f>
+        <f t="shared" ref="G26:S26" si="8">SUM(G27:G29)</f>
         <v>15</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T26" s="8">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="U26" s="9">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="U26" s="9"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -8731,10 +8809,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="U27" s="9">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="U27" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -8787,10 +8868,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U28" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="U28" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -8843,10 +8927,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="U29" s="9">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="U29" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -8869,62 +8956,65 @@
         <v>20</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ref="G30:S30" si="8">SUM(G31:G33)</f>
+        <f t="shared" ref="G30:S30" si="9">SUM(G31:G33)</f>
         <v>10</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T30" s="8">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U30" s="9">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="U30" s="9"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -8977,10 +9067,13 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U31" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="U31" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
@@ -9033,10 +9126,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="U32" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="U32" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -9089,10 +9185,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="U33" s="9">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="U33" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
@@ -9115,62 +9214,65 @@
         <v>23</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34:S34" si="9">SUM(G35:G37)</f>
+        <f t="shared" ref="G34:S34" si="10">SUM(G35:G37)</f>
         <v>12</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34" s="8">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="U34" s="9">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="U34" s="9"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -9223,10 +9325,13 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="U35" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="U35" s="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -9279,10 +9384,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U36" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="U36" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -9335,10 +9443,13 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="U37" s="9">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="U37" s="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
@@ -9361,62 +9472,65 @@
         <v>19</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:S38" si="10">SUM(G39:G41)</f>
+        <f t="shared" ref="G38:S38" si="11">SUM(G39:G41)</f>
         <v>7</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T38" s="8">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="U38" s="9">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="U38" s="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
@@ -9469,10 +9583,13 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="U39" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="U39" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -9525,10 +9642,13 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="U40" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="U40" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -9581,10 +9701,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U41" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="U41" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
@@ -9607,62 +9730,65 @@
         <v>4</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:S42" si="11">SUM(G43:G45)</f>
+        <f t="shared" ref="G42:S42" si="12">SUM(G43:G45)</f>
         <v>2</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T42" s="8">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="U42" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="U42" s="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
@@ -9715,10 +9841,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U43" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U43" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -9771,10 +9900,13 @@
         <v>0</v>
       </c>
       <c r="T44" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U44" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="U44" s="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -9827,10 +9959,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="U45" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="U45" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -9853,62 +9988,65 @@
         <v>17</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ref="G46:S46" si="12">SUM(G47:G49)</f>
+        <f t="shared" ref="G46:S46" si="13">SUM(G47:G49)</f>
         <v>9</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T46" s="8">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="U46" s="9">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="U46" s="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
@@ -9961,10 +10099,13 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="U47" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="U47" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
@@ -10017,10 +10158,13 @@
         <v>0</v>
       </c>
       <c r="T48" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U48" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U48" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
@@ -10073,10 +10217,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U49" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U49" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -10099,62 +10246,65 @@
         <v>10</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" ref="G50:S50" si="13">SUM(G51:G53)</f>
+        <f t="shared" ref="G50:S50" si="14">SUM(G51:G53)</f>
         <v>17</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T50" s="8">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="U50" s="9">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="U50" s="9"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -10207,10 +10357,13 @@
         <v>0</v>
       </c>
       <c r="T51" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="U51" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="U51" s="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
@@ -10263,10 +10416,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U52" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U52" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
@@ -10319,10 +10475,13 @@
         <v>0</v>
       </c>
       <c r="T53" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="U53" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="U53" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -10345,62 +10504,65 @@
         <v>9</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" ref="G54:S54" si="14">SUM(G55:G57)</f>
+        <f t="shared" ref="G54:S54" si="15">SUM(G55:G57)</f>
         <v>2</v>
       </c>
       <c r="H54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T54" s="8">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="U54" s="9">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="U54" s="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
@@ -10453,10 +10615,13 @@
         <v>0</v>
       </c>
       <c r="T55" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="U55" s="9">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="U55" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -10509,10 +10674,13 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U56" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U56" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -10565,10 +10733,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="U57" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U57" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -10591,62 +10762,65 @@
         <v>8</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" ref="G58:S58" si="15">SUM(G59:G61)</f>
+        <f t="shared" ref="G58:S58" si="16">SUM(G59:G61)</f>
         <v>17</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T58" s="8">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="U58" s="9">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="U58" s="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -10699,10 +10873,13 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="U59" s="9">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="U59" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
@@ -10755,10 +10932,13 @@
         <v>0</v>
       </c>
       <c r="T60" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U60" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U60" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -10811,10 +10991,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U61" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="U61" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -10837,62 +11020,65 @@
         <v>15</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" ref="G62:S62" si="16">SUM(G63:G65)</f>
+        <f t="shared" ref="G62:S62" si="17">SUM(G63:G65)</f>
         <v>12</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T62" s="8">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="U62" s="9">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="U62" s="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -10945,10 +11131,13 @@
         <v>0</v>
       </c>
       <c r="T63" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U63" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U63" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -11001,10 +11190,13 @@
         <v>0</v>
       </c>
       <c r="T64" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="U64" s="9">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="U64" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -11057,10 +11249,13 @@
         <v>0</v>
       </c>
       <c r="T65" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="U65" s="9">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="U65" s="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -11083,62 +11278,65 @@
         <v>16</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" ref="G66:S66" si="17">SUM(G67:G69)</f>
+        <f t="shared" ref="G66:S66" si="18">SUM(G67:G69)</f>
         <v>8</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="M66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="N66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="Q66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T66" s="8">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="U66" s="9">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="U66" s="9"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -11191,10 +11389,13 @@
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="U67" s="5"/>
+      <c r="U67" s="9">
+        <f t="shared" ref="U67:U130" si="19">SUM(M67:S67)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
@@ -11247,10 +11448,13 @@
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" ref="T68:T131" si="18">SUM(F68:S68)</f>
+        <f t="shared" ref="T68:T131" si="20">SUM(F68:S68)</f>
         <v>25</v>
       </c>
-      <c r="U68" s="5"/>
+      <c r="U68" s="9">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
@@ -11303,10 +11507,13 @@
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="U69" s="5"/>
+      <c r="U69" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -11329,62 +11536,65 @@
         <v>32</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" ref="G70:S70" si="19">SUM(G71:G73)</f>
+        <f t="shared" ref="G70:S70" si="21">SUM(G71:G73)</f>
         <v>11</v>
       </c>
       <c r="H70" s="7">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T70" s="8">
+        <f t="shared" si="20"/>
+        <v>79</v>
+      </c>
+      <c r="U70" s="9">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="I70" s="7">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="J70" s="7">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="K70" s="7">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="L70" s="7">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="M70" s="7">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="N70" s="7">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="O70" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="7">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T70" s="8">
-        <f t="shared" si="18"/>
-        <v>79</v>
-      </c>
-      <c r="U70" s="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
@@ -11437,10 +11647,13 @@
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="U71" s="5"/>
+      <c r="U71" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
@@ -11493,10 +11706,13 @@
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
-      <c r="U72" s="5"/>
+      <c r="U72" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
@@ -11549,10 +11765,13 @@
         <v>1</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="U73" s="5"/>
+      <c r="U73" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
@@ -11575,62 +11794,65 @@
         <v>25</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" ref="G74:S74" si="20">SUM(G75:G77)</f>
+        <f t="shared" ref="G74:S74" si="22">SUM(G75:G77)</f>
         <v>16</v>
       </c>
       <c r="H74" s="7">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="K74" s="7">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="L74" s="7">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="7">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N74" s="7">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="S74" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="8">
         <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="I74" s="7">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="J74" s="7">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="K74" s="7">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="L74" s="7">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M74" s="7">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N74" s="7">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O74" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="7">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S74" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="8">
-        <f t="shared" si="18"/>
         <v>74</v>
       </c>
-      <c r="U74" s="9"/>
+      <c r="U74" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -11683,10 +11905,13 @@
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="U75" s="5"/>
+      <c r="U75" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
@@ -11739,10 +11964,13 @@
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
-      <c r="U76" s="5"/>
+      <c r="U76" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -11795,10 +12023,13 @@
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
-      <c r="U77" s="5"/>
+      <c r="U77" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -11821,62 +12052,65 @@
         <v>18</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ref="G78:S78" si="21">SUM(G79:G81)</f>
+        <f t="shared" ref="G78:S78" si="23">SUM(G79:G81)</f>
         <v>5</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="O78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T78" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
-      <c r="U78" s="9"/>
+      <c r="U78" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
@@ -11929,10 +12163,13 @@
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="U79" s="5"/>
+      <c r="U79" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
@@ -11985,10 +12222,13 @@
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="U80" s="5"/>
+      <c r="U80" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -12041,10 +12281,13 @@
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="U81" s="5"/>
+      <c r="U81" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
@@ -12067,62 +12310,65 @@
         <v>14</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" ref="G82:S82" si="22">SUM(G83:G85)</f>
+        <f t="shared" ref="G82:S82" si="24">SUM(G83:G85)</f>
         <v>6</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="O82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T82" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
-      <c r="U82" s="9"/>
+      <c r="U82" s="9">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -12175,10 +12421,13 @@
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="U83" s="5"/>
+      <c r="U83" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
@@ -12231,10 +12480,13 @@
         <v>0</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="U84" s="5"/>
+      <c r="U84" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -12287,10 +12539,13 @@
         <v>0</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="U85" s="5"/>
+      <c r="U85" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
@@ -12313,62 +12568,65 @@
         <v>11</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" ref="G86:S86" si="23">SUM(G87:G89)</f>
+        <f t="shared" ref="G86:S86" si="25">SUM(G87:G89)</f>
         <v>7</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="J86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="N86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="R86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T86" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>59</v>
       </c>
-      <c r="U86" s="9"/>
+      <c r="U86" s="9">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -12421,10 +12679,13 @@
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="U87" s="5"/>
+      <c r="U87" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -12477,10 +12738,13 @@
         <v>0</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="U88" s="5"/>
+      <c r="U88" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
@@ -12533,10 +12797,13 @@
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="U89" s="5"/>
+      <c r="U89" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -12559,62 +12826,65 @@
         <v>26</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" ref="G90:S90" si="24">SUM(G91:G93)</f>
+        <f t="shared" ref="G90:S90" si="26">SUM(G91:G93)</f>
         <v>13</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="J90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="K90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="N90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="P90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T90" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
-      <c r="U90" s="9"/>
+      <c r="U90" s="9">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
@@ -12667,10 +12937,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
-      <c r="U91" s="5"/>
+      <c r="U91" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
@@ -12723,10 +12996,13 @@
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="U92" s="5"/>
+      <c r="U92" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -12779,10 +13055,13 @@
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
-      <c r="U93" s="5"/>
+      <c r="U93" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
@@ -12805,62 +13084,65 @@
         <v>6</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ref="G94:S94" si="25">SUM(G95:G97)</f>
+        <f t="shared" ref="G94:S94" si="27">SUM(G95:G97)</f>
         <v>2</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="J94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="N94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T94" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="U94" s="9"/>
+      <c r="U94" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
@@ -12913,10 +13195,13 @@
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="U95" s="5"/>
+      <c r="U95" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
@@ -12969,10 +13254,13 @@
         <v>0</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="U96" s="5"/>
+      <c r="U96" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -13025,10 +13313,13 @@
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="U97" s="5"/>
+      <c r="U97" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
@@ -13051,62 +13342,65 @@
         <v>12</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" ref="G98:S98" si="26">SUM(G99:G101)</f>
+        <f t="shared" ref="G98:S98" si="28">SUM(G99:G101)</f>
         <v>4</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="J98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="K98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T98" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
-      <c r="U98" s="9"/>
+      <c r="U98" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
@@ -13159,10 +13453,13 @@
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
-      <c r="U99" s="5"/>
+      <c r="U99" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
@@ -13215,10 +13512,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="U100" s="5"/>
+      <c r="U100" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
@@ -13271,10 +13571,13 @@
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="U101" s="5"/>
+      <c r="U101" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
@@ -13297,62 +13600,65 @@
         <v>6</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ref="G102:S102" si="27">SUM(G103:G105)</f>
+        <f t="shared" ref="G102:S102" si="29">SUM(G103:G105)</f>
         <v>29</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="J102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="K102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="N102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="R102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T102" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
-      <c r="U102" s="9"/>
+      <c r="U102" s="9">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
@@ -13405,10 +13711,13 @@
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
-      <c r="U103" s="5"/>
+      <c r="U103" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
@@ -13461,10 +13770,13 @@
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="U104" s="5"/>
+      <c r="U104" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
@@ -13517,10 +13829,13 @@
         <v>0</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
-      <c r="U105" s="5"/>
+      <c r="U105" s="9">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
@@ -13543,62 +13858,65 @@
         <v>17</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" ref="G106:S106" si="28">SUM(G107:G109)</f>
+        <f t="shared" ref="G106:S106" si="30">SUM(G107:G109)</f>
         <v>13</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="J106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="K106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="L106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="M106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="S106" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T106" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
-      <c r="U106" s="9"/>
+      <c r="U106" s="9">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
@@ -13651,10 +13969,13 @@
         <v>0</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
-      <c r="U107" s="5"/>
+      <c r="U107" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
@@ -13707,10 +14028,13 @@
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="U108" s="5"/>
+      <c r="U108" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
@@ -13763,10 +14087,13 @@
         <v>0</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
-      <c r="U109" s="5"/>
+      <c r="U109" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
@@ -13789,62 +14116,65 @@
         <v>23</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" ref="G110:S110" si="29">SUM(G111:G113)</f>
+        <f t="shared" ref="G110:S110" si="31">SUM(G111:G113)</f>
         <v>8</v>
       </c>
       <c r="H110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="J110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="K110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="N110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S110" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T110" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
-      <c r="U110" s="9"/>
+      <c r="U110" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
@@ -13897,10 +14227,13 @@
         <v>0</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="U111" s="5"/>
+      <c r="U111" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
@@ -13953,10 +14286,13 @@
         <v>0</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
-      <c r="U112" s="5"/>
+      <c r="U112" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
@@ -14009,10 +14345,13 @@
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="U113" s="5"/>
+      <c r="U113" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
@@ -14035,62 +14374,65 @@
         <v>30</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" ref="G114:S114" si="30">SUM(G115:G117)</f>
+        <f t="shared" ref="G114:S114" si="32">SUM(G115:G117)</f>
         <v>31</v>
       </c>
       <c r="H114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="J114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="K114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="L114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="O114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="P114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Q114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="R114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S114" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T114" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>117</v>
       </c>
-      <c r="U114" s="9"/>
+      <c r="U114" s="9">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
@@ -14143,10 +14485,13 @@
         <v>0</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
-      <c r="U115" s="5"/>
+      <c r="U115" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
@@ -14199,10 +14544,13 @@
         <v>0</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
-      <c r="U116" s="5"/>
+      <c r="U116" s="9">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
@@ -14255,10 +14603,13 @@
         <v>0</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="U117" s="5"/>
+      <c r="U117" s="9">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="118" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
@@ -14281,62 +14632,65 @@
         <v>5</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" ref="G118:S118" si="31">SUM(G119:G121)</f>
+        <f t="shared" ref="G118:S118" si="33">SUM(G119:G121)</f>
         <v>5</v>
       </c>
       <c r="H118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="J118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="K118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="L118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="N118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S118" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T118" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="U118" s="9"/>
+      <c r="U118" s="9">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
@@ -14389,10 +14743,13 @@
         <v>0</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="U119" s="5"/>
+      <c r="U119" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -14445,10 +14802,13 @@
         <v>0</v>
       </c>
       <c r="T120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="U120" s="5"/>
+      <c r="U120" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -14501,10 +14861,13 @@
         <v>0</v>
       </c>
       <c r="T121" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="U121" s="5"/>
+      <c r="U121" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
@@ -14527,62 +14890,65 @@
         <v>12</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" ref="G122:S122" si="32">SUM(G123:G125)</f>
+        <f t="shared" ref="G122:S122" si="34">SUM(G123:G125)</f>
         <v>8</v>
       </c>
       <c r="H122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="J122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="K122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="L122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="N122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S122" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T122" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="U122" s="9"/>
+      <c r="U122" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -14635,10 +15001,13 @@
         <v>0</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
-      <c r="U123" s="5"/>
+      <c r="U123" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
@@ -14691,10 +15060,13 @@
         <v>0</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="U124" s="5"/>
+      <c r="U124" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
@@ -14747,10 +15119,13 @@
         <v>0</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="U125" s="5"/>
+      <c r="U125" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
@@ -14773,62 +15148,65 @@
         <v>23</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" ref="G126:S126" si="33">SUM(G127:G129)</f>
+        <f t="shared" ref="G126:S126" si="35">SUM(G127:G129)</f>
         <v>10</v>
       </c>
       <c r="H126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="J126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="K126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="L126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="N126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S126" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T126" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
-      <c r="U126" s="9"/>
+      <c r="U126" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
@@ -14881,10 +15259,13 @@
         <v>0</v>
       </c>
       <c r="T127" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
-      <c r="U127" s="5"/>
+      <c r="U127" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -14937,10 +15318,13 @@
         <v>0</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="U128" s="5"/>
+      <c r="U128" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
@@ -14993,10 +15377,13 @@
         <v>0</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="U129" s="5"/>
+      <c r="U129" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
@@ -15019,62 +15406,65 @@
         <v>18</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" ref="G130:S130" si="34">SUM(G131:G133)</f>
+        <f t="shared" ref="G130:S130" si="36">SUM(G131:G133)</f>
         <v>7</v>
       </c>
       <c r="H130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="J130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="K130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="L130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="M130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="N130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S130" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T130" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="U130" s="9"/>
+      <c r="U130" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
@@ -15127,10 +15517,13 @@
         <v>0</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="U131" s="5"/>
+      <c r="U131" s="9">
+        <f t="shared" ref="U131:U185" si="37">SUM(M131:S131)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
@@ -15183,10 +15576,13 @@
         <v>0</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" ref="T132:T185" si="35">SUM(F132:S132)</f>
+        <f t="shared" ref="T132:T185" si="38">SUM(F132:S132)</f>
         <v>11</v>
       </c>
-      <c r="U132" s="5"/>
+      <c r="U132" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
@@ -15239,10 +15635,13 @@
         <v>0</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
-      <c r="U133" s="5"/>
+      <c r="U133" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
@@ -15265,62 +15664,65 @@
         <v>10</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" ref="G134:S134" si="36">SUM(G135:G137)</f>
+        <f t="shared" ref="G134:S134" si="39">SUM(G135:G137)</f>
         <v>6</v>
       </c>
       <c r="H134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="J134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="K134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="L134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="N134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="P134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S134" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T134" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>35</v>
       </c>
-      <c r="U134" s="9"/>
+      <c r="U134" s="9">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
@@ -15373,10 +15775,13 @@
         <v>0</v>
       </c>
       <c r="T135" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
-      <c r="U135" s="5"/>
+      <c r="U135" s="9">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
@@ -15429,10 +15834,13 @@
         <v>0</v>
       </c>
       <c r="T136" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
-      <c r="U136" s="5"/>
+      <c r="U136" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
@@ -15485,10 +15893,13 @@
         <v>0</v>
       </c>
       <c r="T137" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="U137" s="5"/>
+      <c r="U137" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
@@ -15511,62 +15922,65 @@
         <v>28</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" ref="G138:S138" si="37">SUM(G139:G141)</f>
+        <f t="shared" ref="G138:S138" si="40">SUM(G139:G141)</f>
         <v>10</v>
       </c>
       <c r="H138" s="7">
+        <f t="shared" si="40"/>
+        <v>17</v>
+      </c>
+      <c r="I138" s="7">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="J138" s="7">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="K138" s="7">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="L138" s="7">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="M138" s="7">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="N138" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="O138" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P138" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="8">
+        <f t="shared" si="38"/>
+        <v>77</v>
+      </c>
+      <c r="U138" s="9">
         <f t="shared" si="37"/>
-        <v>17</v>
-      </c>
-      <c r="I138" s="7">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="J138" s="7">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="K138" s="7">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="L138" s="7">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="M138" s="7">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="N138" s="7">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="O138" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P138" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q138" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R138" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S138" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="T138" s="8">
-        <f t="shared" si="35"/>
-        <v>77</v>
-      </c>
-      <c r="U138" s="9"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
@@ -15619,10 +16033,13 @@
         <v>0</v>
       </c>
       <c r="T139" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
-      <c r="U139" s="5"/>
+      <c r="U139" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
@@ -15675,10 +16092,13 @@
         <v>0</v>
       </c>
       <c r="T140" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
-      <c r="U140" s="5"/>
+      <c r="U140" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
@@ -15731,10 +16151,13 @@
         <v>0</v>
       </c>
       <c r="T141" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>33</v>
       </c>
-      <c r="U141" s="5"/>
+      <c r="U141" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
@@ -15757,62 +16180,65 @@
         <v>15</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" ref="G142:S142" si="38">SUM(G143:G145)</f>
+        <f t="shared" ref="G142:S142" si="41">SUM(G143:G145)</f>
         <v>18</v>
       </c>
       <c r="H142" s="7">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="I142" s="7">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="J142" s="7">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="K142" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="L142" s="7">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="M142" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="N142" s="7">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O142" s="7">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="P142" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="R142" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="8">
         <f t="shared" si="38"/>
-        <v>4</v>
-      </c>
-      <c r="I142" s="7">
-        <f t="shared" si="38"/>
-        <v>7</v>
-      </c>
-      <c r="J142" s="7">
-        <f t="shared" si="38"/>
-        <v>4</v>
-      </c>
-      <c r="K142" s="7">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="L142" s="7">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="M142" s="7">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="N142" s="7">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="O142" s="7">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="P142" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Q142" s="7">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="R142" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S142" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T142" s="8">
-        <f t="shared" si="35"/>
         <v>60</v>
       </c>
-      <c r="U142" s="9"/>
+      <c r="U142" s="9">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
@@ -15865,10 +16291,13 @@
         <v>0</v>
       </c>
       <c r="T143" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
-      <c r="U143" s="5"/>
+      <c r="U143" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
@@ -15921,10 +16350,13 @@
         <v>0</v>
       </c>
       <c r="T144" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
-      <c r="U144" s="5"/>
+      <c r="U144" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
@@ -15977,10 +16409,13 @@
         <v>0</v>
       </c>
       <c r="T145" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
-      <c r="U145" s="5"/>
+      <c r="U145" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="146" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
@@ -16003,62 +16438,65 @@
         <v>25</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" ref="G146:S146" si="39">SUM(G147:G149)</f>
+        <f t="shared" ref="G146:S146" si="42">SUM(G147:G149)</f>
         <v>11</v>
       </c>
       <c r="H146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="J146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="K146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="L146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="N146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="O146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="Q146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S146" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T146" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>69</v>
       </c>
-      <c r="U146" s="9"/>
+      <c r="U146" s="9">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
@@ -16111,10 +16549,13 @@
         <v>0</v>
       </c>
       <c r="T147" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="U147" s="5"/>
+      <c r="U147" s="9">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
@@ -16167,10 +16608,13 @@
         <v>0</v>
       </c>
       <c r="T148" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>34</v>
       </c>
-      <c r="U148" s="5"/>
+      <c r="U148" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
@@ -16223,10 +16667,13 @@
         <v>0</v>
       </c>
       <c r="T149" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
-      <c r="U149" s="5"/>
+      <c r="U149" s="9">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="150" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
@@ -16249,62 +16696,65 @@
         <v>9</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" ref="G150:S150" si="40">SUM(G151:G153)</f>
+        <f t="shared" ref="G150:S150" si="43">SUM(G151:G153)</f>
         <v>1</v>
       </c>
       <c r="H150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="J150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="L150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="Q150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S150" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T150" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30</v>
       </c>
-      <c r="U150" s="9"/>
+      <c r="U150" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
@@ -16357,10 +16807,13 @@
         <v>0</v>
       </c>
       <c r="T151" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="U151" s="5"/>
+      <c r="U151" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
@@ -16413,10 +16866,13 @@
         <v>0</v>
       </c>
       <c r="T152" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
-      <c r="U152" s="5"/>
+      <c r="U152" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
@@ -16469,10 +16925,13 @@
         <v>0</v>
       </c>
       <c r="T153" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="U153" s="5"/>
+      <c r="U153" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
@@ -16495,62 +16954,65 @@
         <v>26</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" ref="G154:S154" si="41">SUM(G155:G157)</f>
+        <f t="shared" ref="G154:S154" si="44">SUM(G155:G157)</f>
         <v>14</v>
       </c>
       <c r="H154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="I154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="J154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="K154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="L154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="N154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="O154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="Q154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S154" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T154" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>83</v>
       </c>
-      <c r="U154" s="9"/>
+      <c r="U154" s="9">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -16603,10 +17065,13 @@
         <v>0</v>
       </c>
       <c r="T155" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
-      <c r="U155" s="5"/>
+      <c r="U155" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
@@ -16659,10 +17124,13 @@
         <v>0</v>
       </c>
       <c r="T156" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27</v>
       </c>
-      <c r="U156" s="5"/>
+      <c r="U156" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
@@ -16715,10 +17183,13 @@
         <v>0</v>
       </c>
       <c r="T157" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>32</v>
       </c>
-      <c r="U157" s="5"/>
+      <c r="U157" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="158" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
@@ -16741,62 +17212,65 @@
         <v>32</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" ref="G158:S158" si="42">SUM(G159:G161)</f>
+        <f t="shared" ref="G158:S158" si="45">SUM(G159:G161)</f>
         <v>11</v>
       </c>
       <c r="H158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="J158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="K158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="L158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="N158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="O158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="P158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="R158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S158" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T158" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
-      <c r="U158" s="9"/>
+      <c r="U158" s="9">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
@@ -16849,10 +17323,13 @@
         <v>0</v>
       </c>
       <c r="T159" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>29</v>
       </c>
-      <c r="U159" s="5"/>
+      <c r="U159" s="9">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
@@ -16905,10 +17382,13 @@
         <v>0</v>
       </c>
       <c r="T160" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>32</v>
       </c>
-      <c r="U160" s="5"/>
+      <c r="U160" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
@@ -16961,10 +17441,13 @@
         <v>0</v>
       </c>
       <c r="T161" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>29</v>
       </c>
-      <c r="U161" s="5"/>
+      <c r="U161" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
@@ -16987,62 +17470,65 @@
         <v>13</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" ref="G162:S162" si="43">SUM(G163:G165)</f>
+        <f t="shared" ref="G162:S162" si="46">SUM(G163:G165)</f>
         <v>5</v>
       </c>
       <c r="H162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="J162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="K162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="L162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="N162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="O162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Q162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="R162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="S162" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T162" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>47</v>
       </c>
-      <c r="U162" s="9"/>
+      <c r="U162" s="9">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
@@ -17095,10 +17581,13 @@
         <v>0</v>
       </c>
       <c r="T163" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
-      <c r="U163" s="5"/>
+      <c r="U163" s="9">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
@@ -17151,10 +17640,13 @@
         <v>0</v>
       </c>
       <c r="T164" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="U164" s="5"/>
+      <c r="U164" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
@@ -17207,10 +17699,13 @@
         <v>0</v>
       </c>
       <c r="T165" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
-      <c r="U165" s="5"/>
+      <c r="U165" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
@@ -17233,62 +17728,65 @@
         <v>7</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" ref="G166:S166" si="44">SUM(G167:G169)</f>
+        <f t="shared" ref="G166:S166" si="47">SUM(G167:G169)</f>
         <v>5</v>
       </c>
       <c r="H166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="I166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="J166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="K166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="L166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="M166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="N166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S166" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T166" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>34</v>
       </c>
-      <c r="U166" s="9"/>
+      <c r="U166" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
@@ -17341,10 +17839,13 @@
         <v>0</v>
       </c>
       <c r="T167" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="U167" s="5"/>
+      <c r="U167" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
@@ -17397,10 +17898,13 @@
         <v>0</v>
       </c>
       <c r="T168" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="U168" s="5"/>
+      <c r="U168" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -17453,10 +17957,13 @@
         <v>0</v>
       </c>
       <c r="T169" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
-      <c r="U169" s="5"/>
+      <c r="U169" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
@@ -17479,62 +17986,65 @@
         <v>10</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" ref="G170:S170" si="45">SUM(G171:G173)</f>
+        <f t="shared" ref="G170:S170" si="48">SUM(G171:G173)</f>
         <v>21</v>
       </c>
       <c r="H170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="J170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="K170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="L170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="M170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="N170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="O170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="P170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="R170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S170" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T170" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
-      <c r="U170" s="9"/>
+      <c r="U170" s="9">
+        <f t="shared" si="37"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
@@ -17587,10 +18097,13 @@
         <v>0</v>
       </c>
       <c r="T171" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="U171" s="5"/>
+      <c r="U171" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
@@ -17643,10 +18156,13 @@
         <v>0</v>
       </c>
       <c r="T172" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>28</v>
       </c>
-      <c r="U172" s="5"/>
+      <c r="U172" s="9">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
@@ -17699,10 +18215,13 @@
         <v>0</v>
       </c>
       <c r="T173" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
-      <c r="U173" s="5"/>
+      <c r="U173" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="174" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
@@ -17725,62 +18244,65 @@
         <v>15</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" ref="G174:S174" si="46">SUM(G175:G177)</f>
+        <f t="shared" ref="G174:S174" si="49">SUM(G175:G177)</f>
         <v>6</v>
       </c>
       <c r="H174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="I174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="J174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="K174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="L174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="M174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="N174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="O174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="P174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="Q174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="S174" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T174" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>51</v>
       </c>
-      <c r="U174" s="9"/>
+      <c r="U174" s="9">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
@@ -17833,10 +18355,13 @@
         <v>0</v>
       </c>
       <c r="T175" s="2">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="U175" s="5"/>
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+      <c r="U175" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
@@ -17889,10 +18414,13 @@
         <v>0</v>
       </c>
       <c r="T176" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27</v>
       </c>
-      <c r="U176" s="5"/>
+      <c r="U176" s="9">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
@@ -17945,10 +18473,13 @@
         <v>0</v>
       </c>
       <c r="T177" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
-      <c r="U177" s="5"/>
+      <c r="U177" s="9">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="178" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
@@ -17971,62 +18502,65 @@
         <v>20</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" ref="G178:S178" si="47">SUM(G179:G181)</f>
+        <f t="shared" ref="G178:S178" si="50">SUM(G179:G181)</f>
         <v>9</v>
       </c>
       <c r="H178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="I178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="J178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="K178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="L178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="N178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="S178" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T178" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
-      <c r="U178" s="9"/>
+      <c r="U178" s="9">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
@@ -18079,10 +18613,13 @@
         <v>0</v>
       </c>
       <c r="T179" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>23</v>
       </c>
-      <c r="U179" s="5"/>
+      <c r="U179" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
@@ -18135,10 +18672,13 @@
         <v>0</v>
       </c>
       <c r="T180" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
-      <c r="U180" s="5"/>
+      <c r="U180" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
@@ -18191,10 +18731,13 @@
         <v>0</v>
       </c>
       <c r="T181" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="U181" s="5"/>
+      <c r="U181" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
@@ -18217,62 +18760,65 @@
         <v>17</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" ref="G182:S182" si="48">SUM(G183:G185)</f>
+        <f t="shared" ref="G182:S182" si="51">SUM(G183:G185)</f>
         <v>9</v>
       </c>
       <c r="H182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="I182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="J182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="K182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="L182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="N182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="P182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="R182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S182" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T182" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>46</v>
       </c>
-      <c r="U182" s="9"/>
+      <c r="U182" s="9">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
@@ -18325,10 +18871,13 @@
         <v>0</v>
       </c>
       <c r="T183" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="U183" s="5"/>
+      <c r="U183" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
@@ -18381,10 +18930,13 @@
         <v>0</v>
       </c>
       <c r="T184" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="U184" s="5"/>
+      <c r="U184" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
@@ -18437,19 +18989,25 @@
         <v>0</v>
       </c>
       <c r="T185" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
-      <c r="U185" s="5"/>
+      <c r="U185" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T186" s="2"/>
+      <c r="U186" s="9"/>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T187" s="2"/>
+      <c r="U187" s="9"/>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T188" s="2"/>
+      <c r="U188" s="9"/>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T189" s="2"/>
